--- a/biology/Botanique/Artemisia_ludoviciana/Artemisia_ludoviciana.xlsx
+++ b/biology/Botanique/Artemisia_ludoviciana/Artemisia_ludoviciana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Artemisa ludoviciana, l'Armoise de l'Ouest ou White sagebrush en anglais, est une espèce de plante à fleurs de la famille des Asteraceae. C'est une plante vivace rhizomateuse formant une touffe originaire d'Amérique du Nord.
 </t>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feuillage
-Ses feuilles, de 10 à 12 cm de long, sont lancéolées, duveteuses, blanc argenté verdissant avec l'âge. 
-Floraison
-De juillet à octobre. Panicules denses, blanc laineux, de 20 cm de long, formées de capitules brun-jaune.
-Taille
-Jusqu'à 1,20 m de haut pour 60 cm de diamètre.
-Très bonne rusticité.
+          <t>Feuillage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles, de 10 à 12 cm de long, sont lancéolées, duveteuses, blanc argenté verdissant avec l'âge. 
 </t>
         </is>
       </c>
@@ -545,14 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Principaux cultivars et variétés</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Artemisia ludoviciana 'Silver Queen', de taille globale plus petite mais aux feuilles plus grandes. Elle fleurit moins abondamment.
-Artemisia ludoviciana 'Valerie Finnis', encore plus petite, aux feuilles gris-argenté très découpées.
-Artemisia ludoviciana var. albula</t>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De juillet à octobre. Panicules denses, blanc laineux, de 20 cm de long, formées de capitules brun-jaune.
+</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'à 1,20 m de haut pour 60 cm de diamètre.
+Très bonne rusticité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artemisia_ludoviciana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_ludoviciana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principaux cultivars et variétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Artemisia ludoviciana 'Silver Queen', de taille globale plus petite mais aux feuilles plus grandes. Elle fleurit moins abondamment.
+Artemisia ludoviciana 'Valerie Finnis', encore plus petite, aux feuilles gris-argenté très découpées.
+Artemisia ludoviciana var. albula</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artemisia_ludoviciana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_ludoviciana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Artemisia purshiana</t>
         </is>
